--- a/natmiOut/OldD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H2">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I2">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J2">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N2">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q2">
-        <v>643.7374340682728</v>
+        <v>714.2684249121113</v>
       </c>
       <c r="R2">
-        <v>643.7374340682728</v>
+        <v>6428.415824209002</v>
       </c>
       <c r="S2">
-        <v>0.09318152829542384</v>
+        <v>0.09060739550976399</v>
       </c>
       <c r="T2">
-        <v>0.09318152829542384</v>
+        <v>0.09060739550976396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H3">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I3">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J3">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N3">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q3">
-        <v>499.7941665762928</v>
+        <v>547.048043058559</v>
       </c>
       <c r="R3">
-        <v>499.7941665762928</v>
+        <v>4923.43238752703</v>
       </c>
       <c r="S3">
-        <v>0.07234562076092868</v>
+        <v>0.06939491747286501</v>
       </c>
       <c r="T3">
-        <v>0.07234562076092868</v>
+        <v>0.069394917472865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H4">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I4">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J4">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N4">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O4">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P4">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q4">
-        <v>412.8550533101081</v>
+        <v>481.4107776924969</v>
       </c>
       <c r="R4">
-        <v>412.8550533101081</v>
+        <v>4332.696999232472</v>
       </c>
       <c r="S4">
-        <v>0.05976111190054623</v>
+        <v>0.06106860560497879</v>
       </c>
       <c r="T4">
-        <v>0.05976111190054623</v>
+        <v>0.06106860560497877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H5">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I5">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J5">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N5">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q5">
-        <v>255.0056975347597</v>
+        <v>362.3164765771721</v>
       </c>
       <c r="R5">
-        <v>255.0056975347597</v>
+        <v>3260.848289194548</v>
       </c>
       <c r="S5">
-        <v>0.03691228653608079</v>
+        <v>0.04596108570383946</v>
       </c>
       <c r="T5">
-        <v>0.03691228653608079</v>
+        <v>0.04596108570383944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H6">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I6">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J6">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N6">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q6">
-        <v>793.983040931194</v>
+        <v>813.52870748795</v>
       </c>
       <c r="R6">
-        <v>793.983040931194</v>
+        <v>7321.758367391551</v>
       </c>
       <c r="S6">
-        <v>0.1149297046888377</v>
+        <v>0.1031989022431977</v>
       </c>
       <c r="T6">
-        <v>0.1149297046888377</v>
+        <v>0.1031989022431977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H7">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I7">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J7">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N7">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q7">
-        <v>616.4440208332367</v>
+        <v>623.0700838525834</v>
       </c>
       <c r="R7">
-        <v>616.4440208332367</v>
+        <v>5607.630754673251</v>
       </c>
       <c r="S7">
-        <v>0.08923078405865245</v>
+        <v>0.07903857366350671</v>
       </c>
       <c r="T7">
-        <v>0.08923078405865245</v>
+        <v>0.07903857366350669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H8">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I8">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J8">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N8">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O8">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P8">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q8">
-        <v>509.2136845597896</v>
+        <v>548.3113547895334</v>
       </c>
       <c r="R8">
-        <v>509.2136845597896</v>
+        <v>4934.8021931058</v>
       </c>
       <c r="S8">
-        <v>0.07370910381326795</v>
+        <v>0.06955517289179187</v>
       </c>
       <c r="T8">
-        <v>0.07370910381326795</v>
+        <v>0.06955517289179186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H9">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I9">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J9">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N9">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q9">
-        <v>314.5229537202203</v>
+        <v>412.6667854983</v>
       </c>
       <c r="R9">
-        <v>314.5229537202203</v>
+        <v>3714.001069484701</v>
       </c>
       <c r="S9">
-        <v>0.04552745880633796</v>
+        <v>0.05234819480083867</v>
       </c>
       <c r="T9">
-        <v>0.04552745880633796</v>
+        <v>0.05234819480083865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H10">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I10">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J10">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N10">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q10">
-        <v>597.1595624458745</v>
+        <v>676.1607770060514</v>
       </c>
       <c r="R10">
-        <v>597.1595624458745</v>
+        <v>6085.446993054463</v>
       </c>
       <c r="S10">
-        <v>0.0864393426886399</v>
+        <v>0.08577330988404694</v>
       </c>
       <c r="T10">
-        <v>0.0864393426886399</v>
+        <v>0.08577330988404691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H11">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I11">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J11">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N11">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q11">
-        <v>463.6313658808384</v>
+        <v>517.861936707659</v>
       </c>
       <c r="R11">
-        <v>463.6313658808384</v>
+        <v>4660.757430368931</v>
       </c>
       <c r="S11">
-        <v>0.06711102532199407</v>
+        <v>0.06569255994270901</v>
       </c>
       <c r="T11">
-        <v>0.06711102532199407</v>
+        <v>0.06569255994270899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H12">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I12">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J12">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N12">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O12">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P12">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q12">
-        <v>382.98276586178</v>
+        <v>455.726550622337</v>
       </c>
       <c r="R12">
-        <v>382.98276586178</v>
+        <v>4101.538955601032</v>
       </c>
       <c r="S12">
-        <v>0.05543707347928485</v>
+        <v>0.05781047345277715</v>
       </c>
       <c r="T12">
-        <v>0.05543707347928485</v>
+        <v>0.05781047345277713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H13">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I13">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J13">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N13">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O13">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P13">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q13">
-        <v>236.5546614225822</v>
+        <v>342.9861684767321</v>
       </c>
       <c r="R13">
-        <v>236.5546614225822</v>
+        <v>3086.875516290589</v>
       </c>
       <c r="S13">
-        <v>0.03424148373267506</v>
+        <v>0.04350896993014042</v>
       </c>
       <c r="T13">
-        <v>0.03424148373267506</v>
+        <v>0.0435089699301404</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H14">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I14">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J14">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N14">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O14">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P14">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q14">
-        <v>420.2537913103328</v>
+        <v>470.884107405236</v>
       </c>
       <c r="R14">
-        <v>420.2537913103328</v>
+        <v>4237.956966647124</v>
       </c>
       <c r="S14">
-        <v>0.06083208537176623</v>
+        <v>0.05973326143344259</v>
       </c>
       <c r="T14">
-        <v>0.06083208537176623</v>
+        <v>0.05973326143344257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H15">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I15">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J15">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N15">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O15">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P15">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q15">
-        <v>326.2827082325599</v>
+        <v>360.6434506678734</v>
       </c>
       <c r="R15">
-        <v>326.2827082325599</v>
+        <v>3245.79105601086</v>
       </c>
       <c r="S15">
-        <v>0.04722969304012122</v>
+        <v>0.04574885663844214</v>
       </c>
       <c r="T15">
-        <v>0.04722969304012122</v>
+        <v>0.04574885663844213</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H16">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I16">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J16">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N16">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O16">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P16">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q16">
-        <v>269.5258846742803</v>
+        <v>317.3718401130294</v>
       </c>
       <c r="R16">
-        <v>269.5258846742803</v>
+        <v>2856.346561017264</v>
       </c>
       <c r="S16">
-        <v>0.03901409568557418</v>
+        <v>0.04025970466820118</v>
       </c>
       <c r="T16">
-        <v>0.03901409568557418</v>
+        <v>0.04025970466820116</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H17">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I17">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J17">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N17">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O17">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P17">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q17">
-        <v>166.4764320406958</v>
+        <v>238.858480538664</v>
       </c>
       <c r="R17">
-        <v>166.4764320406958</v>
+        <v>2149.726324847976</v>
       </c>
       <c r="S17">
-        <v>0.02409760181986882</v>
+        <v>0.03030001615945857</v>
       </c>
       <c r="T17">
-        <v>0.02409760181986882</v>
+        <v>0.03030001615945857</v>
       </c>
     </row>
   </sheetData>
